--- a/www.eia.gov/electricity/monthly/xls/table_3_03.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_3_03.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="27">
   <si>
     <t>Table 3.3 Stocks of Coal, Petroleum Liquids, and Petroleum Coke:</t>
   </si>
   <si>
-    <t>Electric Power Sector, by Census Divison, October 2016 and 2015</t>
+    <t>Electric Power Sector, by Census Divison, November 2016 and 2015</t>
   </si>
   <si>
     <t/>
@@ -45,10 +45,10 @@
     <t>Census Division</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1168,13 +1168,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="12">
-        <v>1840</v>
+        <v>1913</v>
       </c>
       <c r="C6" s="12">
-        <v>1542</v>
+        <v>1687</v>
       </c>
       <c r="D6" s="13">
-        <v>0.19400000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>12</v>
@@ -1194,13 +1194,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="12">
-        <v>4895</v>
+        <v>5064</v>
       </c>
       <c r="C7" s="12">
-        <v>7901</v>
+        <v>8160</v>
       </c>
       <c r="D7" s="13">
-        <v>-0.38</v>
+        <v>-0.379</v>
       </c>
       <c r="E7" s="12">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>4895</v>
+        <v>5064</v>
       </c>
       <c r="H7" s="12">
-        <v>7901</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1220,25 +1220,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="12">
-        <v>37837</v>
+        <v>38345</v>
       </c>
       <c r="C8" s="12">
-        <v>38433</v>
+        <v>41305</v>
       </c>
       <c r="D8" s="13">
-        <v>-1.6E-2</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="E8" s="12">
-        <v>24423</v>
+        <v>23998</v>
       </c>
       <c r="F8" s="12">
-        <v>25686</v>
+        <v>27419</v>
       </c>
       <c r="G8" s="12">
-        <v>13414</v>
+        <v>14347</v>
       </c>
       <c r="H8" s="12">
-        <v>12747</v>
+        <v>13886</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1246,16 +1246,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="12">
-        <v>31185</v>
+        <v>32437</v>
       </c>
       <c r="C9" s="12">
-        <v>28160</v>
+        <v>30205</v>
       </c>
       <c r="D9" s="13">
-        <v>0.107</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E9" s="12">
-        <v>31185</v>
+        <v>32437</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>12</v>
@@ -1272,25 +1272,25 @@
         <v>16</v>
       </c>
       <c r="B10" s="12">
-        <v>26048</v>
+        <v>28012</v>
       </c>
       <c r="C10" s="12">
-        <v>31582</v>
+        <v>33370</v>
       </c>
       <c r="D10" s="13">
-        <v>-0.17499999999999999</v>
+        <v>-0.161</v>
       </c>
       <c r="E10" s="12">
-        <v>24333</v>
+        <v>25940</v>
       </c>
       <c r="F10" s="12">
-        <v>28851</v>
+        <v>30552</v>
       </c>
       <c r="G10" s="12">
-        <v>1715</v>
+        <v>2072</v>
       </c>
       <c r="H10" s="12">
-        <v>2731</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1298,19 +1298,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="12">
-        <v>15442</v>
+        <v>16531</v>
       </c>
       <c r="C11" s="12">
-        <v>17167</v>
+        <v>18732</v>
       </c>
       <c r="D11" s="13">
-        <v>-0.1</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="E11" s="12">
-        <v>15442</v>
+        <v>16531</v>
       </c>
       <c r="F11" s="12">
-        <v>17167</v>
+        <v>18732</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
@@ -1324,25 +1324,25 @@
         <v>18</v>
       </c>
       <c r="B12" s="12">
-        <v>23550</v>
+        <v>26098</v>
       </c>
       <c r="C12" s="12">
-        <v>28334</v>
+        <v>31670</v>
       </c>
       <c r="D12" s="13">
-        <v>-0.16900000000000001</v>
+        <v>-0.17599999999999999</v>
       </c>
       <c r="E12" s="12">
-        <v>16102</v>
+        <v>17552</v>
       </c>
       <c r="F12" s="12">
-        <v>17778</v>
+        <v>19988</v>
       </c>
       <c r="G12" s="12">
-        <v>7448</v>
+        <v>8547</v>
       </c>
       <c r="H12" s="12">
-        <v>10556</v>
+        <v>11681</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1350,13 +1350,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="12">
-        <v>21279</v>
+        <v>22051</v>
       </c>
       <c r="C13" s="12">
-        <v>20672</v>
+        <v>21784</v>
       </c>
       <c r="D13" s="13">
-        <v>2.9000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>12</v>
@@ -1428,25 +1428,25 @@
         <v>22</v>
       </c>
       <c r="B16" s="15">
-        <v>163474</v>
+        <v>172139</v>
       </c>
       <c r="C16" s="15">
-        <v>175588</v>
+        <v>188595</v>
       </c>
       <c r="D16" s="16">
-        <v>-6.9000000000000006E-2</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="E16" s="15">
-        <v>133257</v>
+        <v>139080</v>
       </c>
       <c r="F16" s="15">
-        <v>138712</v>
+        <v>149168</v>
       </c>
       <c r="G16" s="15">
-        <v>30217</v>
+        <v>33059</v>
       </c>
       <c r="H16" s="15">
-        <v>36876</v>
+        <v>39427</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1466,25 +1466,25 @@
         <v>11</v>
       </c>
       <c r="B18" s="12">
-        <v>4477</v>
+        <v>4505</v>
       </c>
       <c r="C18" s="12">
-        <v>4462</v>
+        <v>4989</v>
       </c>
       <c r="D18" s="13">
-        <v>3.0000000000000001E-3</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="E18" s="12">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="F18" s="12">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="G18" s="12">
-        <v>3790</v>
+        <v>3831</v>
       </c>
       <c r="H18" s="12">
-        <v>3752</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1492,25 +1492,25 @@
         <v>13</v>
       </c>
       <c r="B19" s="12">
-        <v>9347</v>
+        <v>5485</v>
       </c>
       <c r="C19" s="12">
-        <v>5433</v>
+        <v>6029</v>
       </c>
       <c r="D19" s="13">
-        <v>0.72</v>
+        <v>-0.09</v>
       </c>
       <c r="E19" s="12">
-        <v>2048</v>
+        <v>2135</v>
       </c>
       <c r="F19" s="12">
-        <v>1823</v>
+        <v>2308</v>
       </c>
       <c r="G19" s="12">
-        <v>7299</v>
+        <v>3350</v>
       </c>
       <c r="H19" s="12">
-        <v>3610</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1518,25 +1518,25 @@
         <v>14</v>
       </c>
       <c r="B20" s="12">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C20" s="12">
-        <v>1160</v>
+        <v>1169</v>
       </c>
       <c r="D20" s="13">
-        <v>-6.8000000000000005E-2</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="E20" s="12">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="F20" s="12">
-        <v>834</v>
+        <v>858</v>
       </c>
       <c r="G20" s="12">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="H20" s="12">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1544,19 +1544,19 @@
         <v>15</v>
       </c>
       <c r="B21" s="12">
-        <v>987</v>
+        <v>947</v>
       </c>
       <c r="C21" s="12">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="D21" s="13">
-        <v>-0.442</v>
+        <v>-0.46200000000000002</v>
       </c>
       <c r="E21" s="12">
-        <v>963</v>
+        <v>923</v>
       </c>
       <c r="F21" s="12">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="G21" s="12">
         <v>24</v>
@@ -1570,22 +1570,22 @@
         <v>16</v>
       </c>
       <c r="B22" s="12">
-        <v>11808</v>
+        <v>11888</v>
       </c>
       <c r="C22" s="12">
-        <v>12308</v>
+        <v>12119</v>
       </c>
       <c r="D22" s="13">
-        <v>-4.1000000000000002E-2</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E22" s="12">
-        <v>9470</v>
+        <v>9591</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="12">
-        <v>2338</v>
+        <v>2298</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>12</v>
@@ -1596,25 +1596,25 @@
         <v>17</v>
       </c>
       <c r="B23" s="12">
-        <v>1868</v>
+        <v>1989</v>
       </c>
       <c r="C23" s="12">
-        <v>1830</v>
+        <v>1809</v>
       </c>
       <c r="D23" s="13">
-        <v>2.1000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="12">
-        <v>1757</v>
+        <v>1737</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="12">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1622,25 +1622,25 @@
         <v>18</v>
       </c>
       <c r="B24" s="12">
-        <v>1850</v>
+        <v>1791</v>
       </c>
       <c r="C24" s="12">
-        <v>1890</v>
+        <v>1921</v>
       </c>
       <c r="D24" s="13">
-        <v>-2.1000000000000001E-2</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="E24" s="12">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="F24" s="12">
-        <v>1405</v>
+        <v>1433</v>
       </c>
       <c r="G24" s="12">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="H24" s="12">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1648,22 +1648,22 @@
         <v>19</v>
       </c>
       <c r="B25" s="12">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C25" s="12">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D25" s="13">
-        <v>-0.11</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>12</v>
+        <v>-0.104</v>
+      </c>
+      <c r="E25" s="12">
+        <v>354</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>12</v>
+      <c r="G25" s="12">
+        <v>33</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>12</v>
@@ -1674,25 +1674,25 @@
         <v>20</v>
       </c>
       <c r="B26" s="12">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="C26" s="12">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="D26" s="13">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E26" s="12">
-        <v>397</v>
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="F26" s="12">
-        <v>377</v>
-      </c>
-      <c r="G26" s="12">
-        <v>96</v>
+        <v>398</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="H26" s="12">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1700,13 +1700,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="12">
-        <v>2305</v>
+        <v>2327</v>
       </c>
       <c r="C27" s="12">
-        <v>2699</v>
+        <v>2758</v>
       </c>
       <c r="D27" s="13">
-        <v>-0.14599999999999999</v>
+        <v>-0.156</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>12</v>
@@ -1726,25 +1726,25 @@
         <v>22</v>
       </c>
       <c r="B28" s="15">
-        <v>34605</v>
+        <v>30847</v>
       </c>
       <c r="C28" s="15">
-        <v>32462</v>
+        <v>33487</v>
       </c>
       <c r="D28" s="16">
-        <v>6.6000000000000003E-2</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="E28" s="15">
-        <v>20157</v>
+        <v>20372</v>
       </c>
       <c r="F28" s="15">
-        <v>21540</v>
+        <v>21946</v>
       </c>
       <c r="G28" s="15">
-        <v>14448</v>
+        <v>10475</v>
       </c>
       <c r="H28" s="15">
-        <v>10922</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="12">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>12</v>
@@ -1880,7 +1880,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="12">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>12</v>
@@ -2024,25 +2024,25 @@
         <v>22</v>
       </c>
       <c r="B40" s="15">
-        <v>812</v>
+        <v>833</v>
       </c>
       <c r="C40" s="15">
-        <v>1151</v>
+        <v>1290</v>
       </c>
       <c r="D40" s="16">
-        <v>-0.29399999999999998</v>
+        <v>-0.35399999999999998</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="15">
-        <v>1026</v>
+      <c r="F40" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="15">
-        <v>125</v>
+      <c r="H40" s="15" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
